--- a/FRT/Ficha FRT.xlsx
+++ b/FRT/Ficha FRT.xlsx
@@ -1,37 +1,231 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
   <workbookPr/>
-  <workbookProtection/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2E897EBEFF0D9669BAC7DBB78A62048D3445C638" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+  <si>
+    <t>Responsavel tecnico</t>
+  </si>
+  <si>
+    <t>Responsavel Preenchimento</t>
+  </si>
+  <si>
+    <t>Identificacao da amostra</t>
+  </si>
+  <si>
+    <t>Data da coleta</t>
+  </si>
+  <si>
+    <t>Coord UTM (E)</t>
+  </si>
+  <si>
+    <t>Coord UTM (S)</t>
+  </si>
+  <si>
+    <t>Area Alvo</t>
+  </si>
+  <si>
+    <t>Id do ponto</t>
+  </si>
+  <si>
+    <t>Localidade e Municipio</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Descontaminacao dos equipamentos</t>
+  </si>
+  <si>
+    <t>Registro Fotografico</t>
+  </si>
+  <si>
+    <t>Cond Atmosferica</t>
+  </si>
+  <si>
+    <t>Temperatura Ambiente</t>
+  </si>
+  <si>
+    <t>Chuva nas 24 horas</t>
+  </si>
+  <si>
+    <t>Chuva nas 48 horas</t>
+  </si>
+  <si>
+    <t>Tipo de amostra vegetal</t>
+  </si>
+  <si>
+    <t>Nome popular amostra 1</t>
+  </si>
+  <si>
+    <t>Quantidade (unidade) amostra 1</t>
+  </si>
+  <si>
+    <t>Quantidade (g) amostra 1</t>
+  </si>
+  <si>
+    <t>Observacoes amostra 1</t>
+  </si>
+  <si>
+    <t>Nome popular amostra 2</t>
+  </si>
+  <si>
+    <t>Quantidade (unidade) amostra 2</t>
+  </si>
+  <si>
+    <t>Quantidade (g) amostra 2</t>
+  </si>
+  <si>
+    <t>Observacoes amostra 2</t>
+  </si>
+  <si>
+    <t>Observacoes Gerais</t>
+  </si>
+  <si>
+    <t>Responsavel pela amostragem 1</t>
+  </si>
+  <si>
+    <t>Responsavel pela amostragem 2</t>
+  </si>
+  <si>
+    <t>Rafaela Pereira</t>
+  </si>
+  <si>
+    <t>Fábio Lucio Félix</t>
+  </si>
+  <si>
+    <t>S/13B/FRT008/</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>FRT008</t>
+  </si>
+  <si>
+    <t>Condomínio Encontro das águas - Curvelo</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>37,4</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Frutos</t>
+  </si>
+  <si>
+    <t>Figo</t>
+  </si>
+  <si>
+    <t>Manga</t>
+  </si>
+  <si>
+    <t>S/13B/FRT021/S</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>FRT021</t>
+  </si>
+  <si>
+    <t>Anguerita - Curvelo</t>
+  </si>
+  <si>
+    <t>11:49</t>
+  </si>
+  <si>
+    <t>36,7</t>
+  </si>
+  <si>
+    <t>Pequi</t>
+  </si>
+  <si>
+    <t>1 dos indivíduos possui 3 frutos gemelares</t>
+  </si>
+  <si>
+    <t>Pimenta</t>
+  </si>
+  <si>
+    <t>Adrielli Ribeiro Araújo</t>
+  </si>
+  <si>
+    <t>S/13B/FRT030/S</t>
+  </si>
+  <si>
+    <t>531982</t>
+  </si>
+  <si>
+    <t>7880325</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>FRT030</t>
+  </si>
+  <si>
+    <t>Curvelo - Fazenda Porto Mesquita</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Ponto extra coletado após conversa do max com a proprietária</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +240,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,506 +564,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel tecnico</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel Preenchimento</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Identificacao da amostra</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Data da coleta</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Coord UTM (E)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Coord UTM (S)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Area Alvo</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Id do ponto</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Localidade e Municipio</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Descontaminacao dos equipamentos</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Registro Fotografico</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Cond Atmosferica</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura Ambiente</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Chuva nas 24 horas</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Chuva nas 48 horas</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de amostra vegetal</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Nome popular amostra 1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade (unidade) amostra 1</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade (g) amostra 1</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Observacoes amostra 1</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Nome popular amostra 2</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade (unidade) amostra 2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade (g) amostra 2</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Observacoes amostra 2</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Observacoes Gerais</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel pela amostragem 1</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel pela amostragem 2</t>
-        </is>
+    <row r="1" spans="1:28">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Rafaela Pereira</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fábio Lucio Félix</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>S/13B/FRT008/</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-12-14</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
         <v>532195</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>789497</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>13</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>FRT008</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Condomínio Encontro das águas - Curvelo</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10:40</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>37,4</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Frutos</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Figo</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>20</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Manga</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>222</v>
       </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Rafaela Pereira</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr"/>
+      <c r="AA2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Rafaela Pereira</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fábio Lucio Félix</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>S/13B/FRT021/S</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-12-12</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
         <v>535012</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>7882523</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>13</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>FRT021</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Anguerita - Curvelo</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>11:49</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>36,7</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Frutos</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Pequi</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3">
         <v>2</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>377</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1 dos indivíduos possui 3 frutos gemelares</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Pimenta</t>
-        </is>
-      </c>
-      <c r="W3" t="n">
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3">
         <v>7</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>67</v>
       </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Rafaela Pereira</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AA3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adrielli Ribeiro Araújo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fábio Lucio Félix</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S/13B/FRT030/S</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-12-12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>531982</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7880325</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>FRT030</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Curvelo - Fazenda Porto Mesquita</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>15:40</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Frutos</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Manga</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4">
         <v>3</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>368</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Ponto extra coletado após conversa do max com a proprietária</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Adrielli Ribeiro Araújo</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -927,6 +888,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db9d5e65-900d-4136-a2d9-b84c230c9751">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="067b8a2d-5c94-4f95-8131-a66158bbd083" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B29F6E6FF83FA94983268F03B4663D92" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e0af9fe4c955a87c166569201c542f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db9d5e65-900d-4136-a2d9-b84c230c9751" xmlns:ns3="067b8a2d-5c94-4f95-8131-a66158bbd083" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91f90cd65e8696f87a03877262d170d8" ns2:_="" ns3:_="">
     <xsd:import namespace="db9d5e65-900d-4136-a2d9-b84c230c9751"/>
@@ -1155,28 +1136,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db9d5e65-900d-4136-a2d9-b84c230c9751">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="067b8a2d-5c94-4f95-8131-a66158bbd083" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41FF8D9C-B5DC-4EE3-8F1C-465DD3CE8875}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DCFFAD-2699-44C4-A033-2EC8D562EDC3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,5 +1145,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DCFFAD-2699-44C4-A033-2EC8D562EDC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41FF8D9C-B5DC-4EE3-8F1C-465DD3CE8875}"/>
 </file>